--- a/data_year/zb/财政/中央财政债务余额情况.xlsx
+++ b/data_year/zb/财政/中央财政债务余额情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,257 +453,209 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32614.21</v>
+        <v>67548.11</v>
       </c>
       <c r="C2" t="n">
-        <v>31848.59</v>
+        <v>66987.97</v>
       </c>
       <c r="D2" t="n">
-        <v>765.52</v>
+        <v>560.14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35015.28</v>
+        <v>72044.50999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>34380.24</v>
+        <v>71410.8</v>
       </c>
       <c r="D3" t="n">
-        <v>635.02</v>
+        <v>633.71</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52074.65</v>
+        <v>77565.7</v>
       </c>
       <c r="C4" t="n">
-        <v>51467.39</v>
+        <v>76747.91</v>
       </c>
       <c r="D4" t="n">
-        <v>607.26</v>
+        <v>817.79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>53271.54</v>
+        <v>86746.91</v>
       </c>
       <c r="C5" t="n">
-        <v>52799.32</v>
+        <v>85836.05</v>
       </c>
       <c r="D5" t="n">
-        <v>472.22</v>
+        <v>910.86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60237.68</v>
+        <v>95655.45</v>
       </c>
       <c r="C6" t="n">
-        <v>59736.95</v>
+        <v>94676.31</v>
       </c>
       <c r="D6" t="n">
-        <v>500.73</v>
+        <v>979.14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>67548.11</v>
+        <v>106599.59</v>
       </c>
       <c r="C7" t="n">
-        <v>66987.97</v>
+        <v>105467.48</v>
       </c>
       <c r="D7" t="n">
-        <v>560.14</v>
+        <v>1132.11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>72044.50999999999</v>
+        <v>120066.75</v>
       </c>
       <c r="C8" t="n">
-        <v>71410.8</v>
+        <v>118811.24</v>
       </c>
       <c r="D8" t="n">
-        <v>633.71</v>
+        <v>1255.51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77565.7</v>
+        <v>134770.15</v>
       </c>
       <c r="C9" t="n">
-        <v>76747.91</v>
+        <v>133447.43</v>
       </c>
       <c r="D9" t="n">
-        <v>817.79</v>
+        <v>1322.72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>86746.91</v>
+        <v>149607.41</v>
       </c>
       <c r="C10" t="n">
-        <v>85836.05</v>
+        <v>148208.62</v>
       </c>
       <c r="D10" t="n">
-        <v>910.86</v>
+        <v>1398.79</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>95655.45</v>
+        <v>168038.04</v>
       </c>
       <c r="C11" t="n">
-        <v>94676.31</v>
+        <v>166032.13</v>
       </c>
       <c r="D11" t="n">
-        <v>979.14</v>
+        <v>2005.91</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>106599.59</v>
+        <v>208905.87</v>
       </c>
       <c r="C12" t="n">
-        <v>105467.48</v>
+        <v>206290.31</v>
       </c>
       <c r="D12" t="n">
-        <v>1132.11</v>
+        <v>2615.56</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>120066.75</v>
+        <v>232697.29</v>
       </c>
       <c r="C13" t="n">
-        <v>118811.24</v>
+        <v>229643.71</v>
       </c>
       <c r="D13" t="n">
-        <v>1255.51</v>
+        <v>3053.58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>134770.15</v>
+        <v>258692.76</v>
       </c>
       <c r="C14" t="n">
-        <v>133447.43</v>
+        <v>255591.55</v>
       </c>
       <c r="D14" t="n">
-        <v>1322.72</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>149607.41</v>
-      </c>
-      <c r="C15" t="n">
-        <v>148208.62</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1398.79</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>168038.04</v>
-      </c>
-      <c r="C16" t="n">
-        <v>166032.13</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2005.91</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>208905.87</v>
-      </c>
-      <c r="C17" t="n">
-        <v>206290.31</v>
-      </c>
-      <c r="D17" t="n">
-        <v>2615.56</v>
+        <v>3101.21</v>
       </c>
     </row>
   </sheetData>
